--- a/Documents/WorkLogs/Jordan_Worklog.xlsx
+++ b/Documents/WorkLogs/Jordan_Worklog.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="10770" windowHeight="8010"/>
+    <workbookView xWindow="13455" yWindow="165" windowWidth="10770" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -61,13 +61,16 @@
   </si>
   <si>
     <t>Testing UserList</t>
+  </si>
+  <si>
+    <t>Work on UserList and Login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,7 +191,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -223,7 +225,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,26 +400,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -432,7 +433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>42025</v>
       </c>
@@ -443,11 +444,11 @@
         <v>2.5</v>
       </c>
       <c r="E3">
-        <f>SUM(C3:C24)</f>
-        <v>62.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f>SUM(C3:C26)</f>
+        <v>67.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>42037</v>
       </c>
@@ -458,7 +459,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>42041</v>
       </c>
@@ -469,7 +470,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>42048</v>
       </c>
@@ -480,7 +481,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>42059</v>
       </c>
@@ -491,7 +492,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>42062</v>
       </c>
@@ -502,7 +503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>42069</v>
       </c>
@@ -513,7 +514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>42070</v>
       </c>
@@ -524,7 +525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>42076</v>
       </c>
@@ -535,7 +536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>42088</v>
       </c>
@@ -546,7 +547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>42094</v>
       </c>
@@ -557,7 +558,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>42096</v>
       </c>
@@ -568,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>42101</v>
       </c>
@@ -579,7 +580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>42102</v>
       </c>
@@ -590,7 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>42103</v>
       </c>
@@ -601,7 +602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>42105</v>
       </c>
@@ -612,7 +613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>42106</v>
       </c>
@@ -623,7 +624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>42107</v>
       </c>
@@ -634,7 +635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>42108</v>
       </c>
@@ -645,7 +646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>42109</v>
       </c>
@@ -656,7 +657,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>42110</v>
       </c>
@@ -667,7 +668,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>42114</v>
       </c>
@@ -678,143 +679,157 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>42059</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>42123</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
     </row>
@@ -824,24 +839,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/WorkLogs/Jordan_Worklog.xlsx
+++ b/Documents/WorkLogs/Jordan_Worklog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -444,104 +444,104 @@
         <v>2.5</v>
       </c>
       <c r="E3">
-        <f>SUM(C3:C26)</f>
-        <v>67.25</v>
+        <f>SUM(C3:C31)</f>
+        <v>71.5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>42037</v>
+        <v>42032</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>42041</v>
+        <v>42034</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>42048</v>
+        <v>42037</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>42059</v>
+        <v>42040</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>42062</v>
+        <v>42048</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>42069</v>
+        <v>42059</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>42070</v>
+        <v>42062</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>42076</v>
+        <v>42069</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>42088</v>
+        <v>42070</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -549,54 +549,54 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>42094</v>
+        <v>42073</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>42096</v>
+        <v>42076</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>42101</v>
+        <v>42079</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>42102</v>
+        <v>42082</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>42103</v>
+        <v>42088</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -604,76 +604,76 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>42105</v>
+        <v>42094</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>42106</v>
+        <v>42096</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>42107</v>
+        <v>42101</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>42108</v>
+        <v>42102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>42109</v>
+        <v>42103</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>42110</v>
+        <v>42105</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C23">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>42114</v>
+        <v>42106</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -681,45 +681,77 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>42059</v>
+        <v>42107</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
+        <v>42108</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>42109</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>42110</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>42114</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
         <v>42123</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C26">
+      <c r="C30">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="1">
+        <v>42124</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1"/>
@@ -832,6 +864,26 @@
     <row r="59" spans="1:2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/WorkLogs/Jordan_Worklog.xlsx
+++ b/Documents/WorkLogs/Jordan_Worklog.xlsx
@@ -403,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -445,7 +445,7 @@
       </c>
       <c r="E3">
         <f>SUM(C3:C31)</f>
-        <v>71.5</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -751,6 +751,9 @@
       </c>
       <c r="B31" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">

--- a/Documents/WorkLogs/Jordan_Worklog.xlsx
+++ b/Documents/WorkLogs/Jordan_Worklog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Work on UserList and Login</t>
+  </si>
+  <si>
+    <t>Checking everything meets Standards</t>
   </si>
 </sst>
 </file>
@@ -403,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -444,8 +447,8 @@
         <v>2.5</v>
       </c>
       <c r="E3">
-        <f>SUM(C3:C31)</f>
-        <v>74.5</v>
+        <f>SUM(C3:C32)</f>
+        <v>76.5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -757,8 +760,15 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="1">
+        <v>42127</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1"/>

--- a/Documents/WorkLogs/Jordan_Worklog.xlsx
+++ b/Documents/WorkLogs/Jordan_Worklog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Checking everything meets Standards</t>
+  </si>
+  <si>
+    <t>Meeting, and Teacher Meeting</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -447,8 +450,8 @@
         <v>2.5</v>
       </c>
       <c r="E3">
-        <f>SUM(C3:C32)</f>
-        <v>76.5</v>
+        <f>SUM(C3:C33)</f>
+        <v>83.5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -770,67 +773,74 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2">
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>42128</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
